--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="用户管理" sheetId="1" r:id="rId1"/>
-    <sheet name="学习笔记" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="学习笔记表结构" sheetId="2" r:id="rId2"/>
+    <sheet name="学习笔记表数据" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="82">
   <si>
     <t>序号</t>
   </si>
@@ -191,6 +191,81 @@
     <t>TEXT</t>
   </si>
   <si>
+    <t>Priv_Menu</t>
+  </si>
+  <si>
+    <t>菜单唯一号</t>
+  </si>
+  <si>
+    <t>MenuID</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>MenuName</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>菜单简称</t>
+  </si>
+  <si>
+    <t>MenuSName</t>
+  </si>
+  <si>
+    <t>菜单图片</t>
+  </si>
+  <si>
+    <t>MenuPic</t>
+  </si>
+  <si>
+    <t>菜单序号</t>
+  </si>
+  <si>
+    <t>Priv_SMenu</t>
+  </si>
+  <si>
+    <t>子菜单唯一号</t>
+  </si>
+  <si>
+    <t>SMenuID</t>
+  </si>
+  <si>
+    <t>功能点唯一号</t>
+  </si>
+  <si>
+    <t>FunID</t>
+  </si>
+  <si>
+    <t>Priv_Function</t>
+  </si>
+  <si>
+    <t>功能点名称</t>
+  </si>
+  <si>
+    <t>FunName</t>
+  </si>
+  <si>
+    <t>功能点简称</t>
+  </si>
+  <si>
+    <t>FunSName</t>
+  </si>
+  <si>
+    <t>文件路径</t>
+  </si>
+  <si>
+    <t>DirPath</t>
+  </si>
+  <si>
+    <t>路由路径</t>
+  </si>
+  <si>
+    <t>RoutePath</t>
+  </si>
+  <si>
     <t>字典代码</t>
   </si>
   <si>
@@ -215,9 +290,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -257,7 +332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,30 +346,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,9 +361,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,18 +375,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,6 +407,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -355,15 +445,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,22 +468,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -415,19 +490,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,151 +646,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,17 +736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -729,6 +793,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -743,21 +833,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +841,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,137 +853,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,6 +1007,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1317,34 +1395,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1384,10 +1462,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1504,7 +1582,7 @@
       <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1588,7 +1666,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
@@ -1858,88 +1936,190 @@
       <c r="I18" s="4"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
+    <row r="19" ht="22.5" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="A24" s="3">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="3">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10">
@@ -1954,83 +2134,534 @@
       <c r="I26" s="4"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="33" ht="20.25" spans="1:10">
-      <c r="A33" s="9" t="s">
+    <row r="27" ht="22.5" spans="1:10">
+      <c r="A27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
+        <v>3</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" ht="22.5" spans="1:10">
+      <c r="A37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3">
+        <v>3</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3">
+        <v>4</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3">
+        <v>5</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="53" ht="20.25" spans="1:10">
+      <c r="A53" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3">
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3">
         <v>1</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3">
+      <c r="B55" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3">
         <v>2</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3">
+      <c r="B56" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3">
         <v>3</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3">
+      <c r="B57" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3">
         <v>4</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3">
+      <c r="B58" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3">
         <v>5</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B59" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A53:B53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J4" location="学习笔记!A32" display="见 SNNoteType"/>
@@ -2044,14 +2675,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
